--- a/传输数据格式.xlsx
+++ b/传输数据格式.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Emb\OurEDA-S2L\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Emb\S1ROV\OurEDA-S2L\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1733E3-06B8-401E-883E-0E574AE8D264}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31960DA6-C69A-4A4C-BB30-9C48109FD8C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9675" yWindow="1650" windowWidth="20730" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1275" yWindow="5460" windowWidth="20550" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -289,15 +289,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>前数取位或</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0xFF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0~4096</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前数取位异或</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -417,74 +417,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -504,7 +436,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -761,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AI10" sqref="AI10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1092,7 +1024,7 @@
         <v>63</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="4" t="s">
@@ -1150,13 +1082,13 @@
       </c>
       <c r="AH10" s="5"/>
       <c r="AI10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ10" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AJ10" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="AK10" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.2">
@@ -1274,11 +1206,25 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="Q8:V8"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W8:AB8"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="AJ9:AK9"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="AC10:AD10"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AG10:AH10"/>
     <mergeCell ref="Q10:R10"/>
     <mergeCell ref="S10:T10"/>
     <mergeCell ref="E8:J8"/>
@@ -1295,25 +1241,11 @@
     <mergeCell ref="O10:P10"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="AJ9:AK9"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W8:AB8"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="Q8:V8"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
